--- a/GroupList.xlsx
+++ b/GroupList.xlsx
@@ -20,18 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t xml:space="preserve">OrgDefinedId</t>
   </si>
   <si>
-    <t xml:space="preserve">Last Name</t>
+    <t xml:space="preserve">GroupCategory1</t>
   </si>
   <si>
-    <t xml:space="preserve">First Name</t>
+    <t xml:space="preserve">GroupCategory2</t>
   </si>
   <si>
-    <t xml:space="preserve">Group</t>
+    <t xml:space="preserve">GroupCategory3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
   </si>
 </sst>
 </file>
@@ -131,14 +158,14 @@
   <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -155,1848 +182,1934 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
-        <v>1</v>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
-        <v>1</v>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
-        <v>1</v>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
-        <v>1</v>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="n">
-        <v>1</v>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
-        <v>1</v>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
-        <v>1</v>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
-        <v>1</v>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="n">
-        <v>1</v>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
-        <v>1</v>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
-        <v>1</v>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
-        <v>1</v>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
-        <v>1</v>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="n">
-        <v>1</v>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
-        <v>1</v>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
-        <v>1</v>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
-        <v>1</v>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
-        <v>1</v>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="n">
+      <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
+      <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="n">
+      <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="n">
+      <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="n">
+      <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="n">
+      <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="n">
+      <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="n">
+      <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="n">
+      <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="n">
+      <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="n">
+      <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="n">
+      <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="n">
+      <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="n">
+      <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="n">
+      <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="n">
+      <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="0" t="n">
+      <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="0" t="n">
+      <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="n">
+      <c r="B45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="n">
+      <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="0" t="n">
+      <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="n">
+      <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="0" t="n">
+      <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="n">
+      <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="0" t="n">
+      <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0" t="n">
+      <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="n">
+      <c r="B53" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0" t="n">
+      <c r="B54" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="0" t="n">
+      <c r="B55" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="n">
+      <c r="B56" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="n">
+      <c r="B57" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="0" t="n">
+      <c r="B58" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="n">
+      <c r="B59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="0" t="n">
+      <c r="B60" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="0" t="n">
+      <c r="B61" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="0" t="n">
+      <c r="B62" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="0" t="n">
+      <c r="B63" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="0" t="n">
+      <c r="B64" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="0" t="n">
+      <c r="B65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0" t="n">
+      <c r="B66" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0" t="n">
+      <c r="B67" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0" t="n">
+      <c r="B68" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="0" t="n">
+      <c r="B69" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="0" t="n">
+      <c r="B70" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="0" t="n">
+      <c r="B71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="0" t="n">
+      <c r="B72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="0" t="n">
+      <c r="B73" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="0" t="n">
+      <c r="B74" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="0" t="n">
+      <c r="B75" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="0" t="n">
+      <c r="B76" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="n">
+      <c r="B77" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="0" t="n">
+      <c r="B78" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="0" t="n">
+      <c r="B79" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="0" t="n">
+      <c r="B80" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="0" t="n">
+      <c r="B81" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="0" t="n">
+      <c r="B82" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="0" t="n">
+      <c r="B83" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="0" t="n">
+      <c r="B84" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="0" t="n">
+      <c r="B85" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="n">
+      <c r="B86" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="0" t="n">
+      <c r="B87" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="0" t="n">
+      <c r="B88" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="0" t="n">
+      <c r="B89" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="0" t="n">
+      <c r="B90" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="0" t="n">
+      <c r="B91" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="0" t="n">
+      <c r="B92" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="0" t="n">
+      <c r="B93" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="0" t="n">
+      <c r="B94" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="0" t="n">
+      <c r="B95" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="0" t="n">
+      <c r="B96" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="0" t="n">
+      <c r="B97" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="0" t="n">
+      <c r="B98" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="0" t="n">
+      <c r="B99" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="0" t="n">
+      <c r="B100" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="0" t="n">
+      <c r="B101" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="0" t="n">
+      <c r="B102" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="0" t="n">
+      <c r="B103" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="0" t="n">
+      <c r="B104" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="0" t="n">
+      <c r="B105" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="0" t="n">
+      <c r="B106" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="0" t="n">
+      <c r="B107" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="0" t="n">
+      <c r="B108" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="0" t="n">
+      <c r="B109" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="0" t="n">
+      <c r="B110" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="0" t="n">
+      <c r="B111" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="0" t="n">
+      <c r="B112" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="0" t="n">
+      <c r="B113" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="0" t="n">
+      <c r="B114" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="0" t="n">
+      <c r="B115" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="0" t="n">
+      <c r="B116" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="0" t="n">
+      <c r="B117" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="0" t="n">
+      <c r="B118" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="0" t="n">
+      <c r="B119" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="0" t="n">
+      <c r="B120" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="0" t="n">
+      <c r="B121" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="0" t="n">
+      <c r="B122" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D123" s="0" t="n">
+      <c r="B123" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="0" t="n">
+      <c r="B124" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="0" t="n">
+      <c r="B125" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="0" t="n">
+      <c r="B126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="0" t="n">
+      <c r="B127" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="0" t="n">
+      <c r="B128" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="0" t="n">
+      <c r="B129" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="0" t="n">
+      <c r="B130" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="0" t="n">
+      <c r="B131" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="0" t="n">
+      <c r="B132" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="0" t="n">
+      <c r="B133" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="0" t="n">
+      <c r="B134" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D135" s="0" t="n">
+      <c r="B135" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="0" t="n">
+      <c r="B136" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="0" t="n">
+      <c r="B137" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="0" t="n">
+      <c r="B138" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="0" t="n">
+      <c r="B139" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="0" t="n">
+      <c r="B140" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="0" t="n">
+      <c r="B141" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D142" s="0" t="n">
+      <c r="B142" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D143" s="0" t="n">
+      <c r="B143" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="0" t="n">
+      <c r="B144" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="0" t="n">
+      <c r="B145" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="n">
+      <c r="B146" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="0" t="n">
+      <c r="B147" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="0" t="n">
+      <c r="B148" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D149" s="0" t="n">
+      <c r="B149" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D150" s="0" t="n">
+      <c r="B150" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="0" t="n">
+      <c r="B151" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="0" t="n">
+      <c r="B152" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="0" t="n">
+      <c r="B153" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="0" t="n">
+      <c r="B154" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="0" t="n">
+      <c r="B155" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="0" t="n">
+      <c r="B156" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D157" s="0" t="n">
+      <c r="B157" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="0" t="n">
+      <c r="B158" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D159" s="0" t="n">
+      <c r="B159" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="0" t="n">
+      <c r="B160" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="0" t="n">
+      <c r="B161" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="0" t="n">
+      <c r="B162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="0" t="n">
+      <c r="B163" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D164" s="0" t="n">
+      <c r="B164" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D165" s="0" t="n">
+      <c r="B165" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D166" s="0" t="n">
+      <c r="B166" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D167" s="0" t="n">
+      <c r="B167" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D168" s="0" t="n">
+      <c r="B168" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D169" s="0" t="n">
+      <c r="B169" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D170" s="0" t="n">
+      <c r="B170" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D171" s="0" t="n">
+      <c r="B171" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D172" s="0" t="n">
+      <c r="B172" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D173" s="0" t="n">
+      <c r="B173" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D174" s="0" t="n">
+      <c r="B174" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D175" s="0" t="n">
+      <c r="B175" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D176" s="0" t="n">
+      <c r="B176" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D177" s="0" t="n">
+      <c r="B177" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D178" s="0" t="n">
+      <c r="B178" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D179" s="0" t="n">
+      <c r="B179" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="0" t="n">
+      <c r="B180" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D181" s="0" t="n">
+      <c r="B181" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="0" t="n">
+      <c r="B182" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="0" t="n">
+      <c r="B183" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D184" s="0" t="n">
+      <c r="B184" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D185" s="0" t="n">
+      <c r="B185" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D186" s="0" t="n">
+      <c r="B186" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D187" s="0" t="n">
+      <c r="B187" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="0" t="n">
+      <c r="B188" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D189" s="0" t="n">
+      <c r="B189" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D190" s="0" t="n">
+      <c r="B190" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D191" s="0" t="n">
+      <c r="B191" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D192" s="0" t="n">
+      <c r="B192" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D193" s="0" t="n">
+      <c r="B193" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D194" s="0" t="n">
+      <c r="B194" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D195" s="0" t="n">
+      <c r="B195" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D196" s="0" t="n">
+      <c r="B196" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="0" t="n">
+      <c r="B197" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D198" s="0" t="n">
+      <c r="B198" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D199" s="0" t="n">
+      <c r="B199" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D200" s="0" t="n">
+      <c r="B200" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D201" s="0" t="n">
+      <c r="B201" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D202" s="0" t="n">
+      <c r="B202" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D203" s="0" t="n">
+      <c r="B203" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D204" s="0" t="n">
+      <c r="B204" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D205" s="0" t="n">
+      <c r="B205" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D206" s="0" t="n">
+      <c r="B206" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D207" s="0" t="n">
+      <c r="B207" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D208" s="0" t="n">
+      <c r="B208" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D209" s="0" t="n">
+      <c r="B209" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D210" s="0" t="n">
+      <c r="B210" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="0" t="n">
+      <c r="B211" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="0" t="n">
+      <c r="B212" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D213" s="0" t="n">
+      <c r="B213" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D214" s="0" t="n">
+      <c r="B214" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D215" s="0" t="n">
+      <c r="B215" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D216" s="0" t="n">
+      <c r="B216" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D217" s="0" t="n">
+      <c r="B217" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D218" s="0" t="n">
+      <c r="B218" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D219" s="0" t="n">
+      <c r="B219" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D220" s="0" t="n">
+      <c r="B220" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D221" s="0" t="n">
+      <c r="B221" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D222" s="0" t="n">
+      <c r="B222" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D223" s="0" t="n">
+      <c r="B223" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D224" s="0" t="n">
+      <c r="B224" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D225" s="0" t="n">
+      <c r="B225" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D226" s="0" t="n">
+      <c r="B226" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D227" s="0" t="n">
+      <c r="B227" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D228" s="0" t="n">
+      <c r="B228" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D229" s="0" t="n">
+      <c r="B229" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D230" s="0" t="n">
+      <c r="B230" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D231" s="0" t="n">
+      <c r="B231" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D232" s="0" t="n">
+      <c r="B232" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D233" s="0" t="n">
+      <c r="B233" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D234" s="0" t="n">
+      <c r="B234" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D235" s="0" t="n">
+      <c r="B235" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D236" s="0" t="n">
+      <c r="B236" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D237" s="0" t="n">
+      <c r="B237" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D238" s="0" t="n">
+      <c r="B238" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D239" s="0" t="n">
+      <c r="B239" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D240" s="0" t="n">
+      <c r="B240" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D241" s="0" t="n">
+      <c r="B241" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D242" s="0" t="n">
+      <c r="B242" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D243" s="0" t="n">
+      <c r="B243" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D244" s="0" t="n">
+      <c r="B244" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D245" s="0" t="n">
+      <c r="B245" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D246" s="0" t="n">
+      <c r="B246" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D247" s="0" t="n">
+      <c r="B247" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D248" s="0" t="n">
+      <c r="B248" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D249" s="0" t="n">
+      <c r="B249" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D250" s="0" t="n">
+      <c r="B250" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="0" t="n">
+      <c r="B251" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D252" s="0" t="n">
+      <c r="B252" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D253" s="0" t="n">
+      <c r="B253" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D254" s="0" t="n">
+      <c r="B254" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D255" s="0" t="n">
+      <c r="B255" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D256" s="0" t="n">
+      <c r="B256" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D257" s="0" t="n">
+      <c r="B257" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D258" s="0" t="n">
+      <c r="B258" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D259" s="0" t="n">
+      <c r="B259" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D260" s="0" t="n">
+      <c r="B260" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D261" s="0" t="n">
+      <c r="B261" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D262" s="0" t="n">
+      <c r="B262" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D263" s="0" t="n">
+      <c r="B263" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D264" s="0" t="n">
+      <c r="B264" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D265" s="0" t="n">
+      <c r="B265" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D266" s="0" t="n">
+      <c r="B266" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D267" s="0" t="n">
+      <c r="B267" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D268" s="0" t="n">
+      <c r="B268" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D269" s="0" t="n">
+      <c r="B269" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D270" s="0" t="n">
+      <c r="B270" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D271" s="0" t="n">
+      <c r="B271" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D272" s="0" t="n">
+      <c r="B272" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D273" s="0" t="n">
+      <c r="B273" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D274" s="0" t="n">
+      <c r="B274" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D275" s="0" t="n">
+      <c r="B275" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D276" s="0" t="n">
+      <c r="B276" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D277" s="0" t="n">
+      <c r="B277" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D278" s="0" t="n">
+      <c r="B278" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D279" s="0" t="n">
+      <c r="B279" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D280" s="0" t="n">
+      <c r="B280" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D281" s="0" t="n">
+      <c r="B281" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D282" s="0" t="n">
+      <c r="B282" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D283" s="0" t="n">
+      <c r="B283" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D284" s="0" t="n">
+      <c r="B284" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D285" s="0" t="n">
+      <c r="B285" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D286" s="0" t="n">
+      <c r="B286" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D287" s="0" t="n">
+      <c r="B287" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D288" s="0" t="n">
+      <c r="B288" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D289" s="0" t="n">
+      <c r="B289" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D290" s="0" t="n">
+      <c r="B290" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D291" s="0" t="n">
+      <c r="B291" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D292" s="0" t="n">
+      <c r="B292" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D293" s="0" t="n">
+      <c r="B293" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D294" s="0" t="n">
+      <c r="B294" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D295" s="0" t="n">
+      <c r="B295" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D296" s="0" t="n">
+      <c r="B296" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D297" s="0" t="n">
+      <c r="B297" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D298" s="0" t="n">
+      <c r="B298" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D299" s="0" t="n">
+      <c r="B299" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D300" s="0" t="n">
+      <c r="B300" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D301" s="0" t="n">
+      <c r="B301" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D302" s="0" t="n">
+      <c r="B302" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D303" s="0" t="n">
+      <c r="B303" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D304" s="0" t="n">
+      <c r="B304" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D305" s="0" t="n">
+      <c r="B305" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D306" s="0" t="n">
+      <c r="B306" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D307" s="0" t="n">
+      <c r="B307" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D308" s="0" t="n">
+      <c r="B308" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D309" s="0" t="n">
+      <c r="B309" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D310" s="0" t="n">
+      <c r="B310" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D311" s="0" t="n">
+      <c r="B311" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D312" s="0" t="n">
+      <c r="B312" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D313" s="0" t="n">
+      <c r="B313" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D314" s="0" t="n">
+      <c r="B314" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D315" s="0" t="n">
+      <c r="B315" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D316" s="0" t="n">
+      <c r="B316" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D317" s="0" t="n">
+      <c r="B317" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D318" s="0" t="n">
+      <c r="B318" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D319" s="0" t="n">
+      <c r="B319" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D320" s="0" t="n">
+      <c r="B320" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D321" s="0" t="n">
+      <c r="B321" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D322" s="0" t="n">
+      <c r="B322" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D323" s="0" t="n">
+      <c r="B323" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D324" s="0" t="n">
+      <c r="B324" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D325" s="0" t="n">
+      <c r="B325" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D326" s="0" t="n">
+      <c r="B326" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D327" s="0" t="n">
+      <c r="B327" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D328" s="0" t="n">
+      <c r="B328" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D329" s="0" t="n">
+      <c r="B329" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D330" s="0" t="n">
+      <c r="B330" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D331" s="0" t="n">
+      <c r="B331" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D332" s="0" t="n">
+      <c r="B332" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D333" s="0" t="n">
+      <c r="B333" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D334" s="0" t="n">
+      <c r="B334" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D335" s="0" t="n">
+      <c r="B335" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D336" s="0" t="n">
+      <c r="B336" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D337" s="0" t="n">
+      <c r="B337" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D338" s="0" t="n">
+      <c r="B338" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D339" s="0" t="n">
+      <c r="B339" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D340" s="0" t="n">
+      <c r="B340" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D341" s="0" t="n">
+      <c r="B341" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D342" s="0" t="n">
+      <c r="B342" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D343" s="0" t="n">
+      <c r="B343" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D344" s="0" t="n">
+      <c r="B344" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D345" s="0" t="n">
+      <c r="B345" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D346" s="0" t="n">
+      <c r="B346" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D347" s="0" t="n">
+      <c r="B347" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D348" s="0" t="n">
+      <c r="B348" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D349" s="0" t="n">
+      <c r="B349" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D350" s="0" t="n">
+      <c r="B350" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D351" s="0" t="n">
+      <c r="B351" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D352" s="0" t="n">
+      <c r="B352" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D353" s="0" t="n">
+      <c r="B353" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D354" s="0" t="n">
+      <c r="B354" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D355" s="0" t="n">
+      <c r="B355" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="0" t="n">
+      <c r="B356" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D357" s="0" t="n">
+      <c r="B357" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D358" s="0" t="n">
+      <c r="B358" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D359" s="0" t="n">
+      <c r="B359" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D360" s="0" t="n">
+      <c r="B360" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D361" s="0" t="n">
+      <c r="B361" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D362" s="0" t="n">
+      <c r="B362" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D363" s="0" t="n">
+      <c r="B363" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D364" s="0" t="n">
+      <c r="B364" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D365" s="0" t="n">
+      <c r="B365" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D366" s="0" t="n">
+      <c r="B366" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D367" s="0" t="n">
+      <c r="B367" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D368" s="0" t="n">
+      <c r="B368" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D369" s="0" t="n">
+      <c r="B369" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D370" s="0" t="n">
+      <c r="B370" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D371" s="0" t="n">
+      <c r="B371" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/GroupList.xlsx
+++ b/GroupList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="43">
   <si>
     <t xml:space="preserve">OrgDefinedId</t>
   </si>
@@ -34,31 +34,121 @@
     <t xml:space="preserve">GroupCategory3</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1</t>
   </si>
 </sst>
 </file>
@@ -133,8 +223,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,1966 +245,2976 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="n">
+        <v>22222222</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="n">
+        <v>33333333</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
+      <c r="A5" s="0"/>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="n">
+        <v>44444444</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="n">
+        <v>55555555</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>66666666</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="n">
+        <v>77777777</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
+      <c r="A10" s="0"/>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="n">
+        <v>88888888</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>10</v>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>10</v>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>10</v>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>11</v>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>11</v>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>11</v>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>11</v>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>12</v>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>12</v>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>12</v>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>12</v>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>12</v>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
-        <v>1</v>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
-        <v>1</v>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
-        <v>1</v>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
-        <v>1</v>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
-        <v>1</v>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
-        <v>1</v>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
-        <v>1</v>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
-        <v>1</v>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
-        <v>1</v>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
-        <v>1</v>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
-        <v>1</v>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
-        <v>1</v>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
-        <v>1</v>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
-        <v>1</v>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
-        <v>1</v>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="n">
-        <v>1</v>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
-        <v>1</v>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
-        <v>1</v>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
-        <v>1</v>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="n">
-        <v>1</v>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
-        <v>1</v>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
-        <v>1</v>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="n">
-        <v>1</v>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="n">
-        <v>1</v>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="n">
-        <v>1</v>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="n">
-        <v>1</v>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="n">
-        <v>2</v>
+      <c r="B54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="n">
-        <v>2</v>
+      <c r="B55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="n">
-        <v>2</v>
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="n">
-        <v>2</v>
+      <c r="B58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
-        <v>2</v>
+      <c r="B59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="n">
-        <v>2</v>
+      <c r="B60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="n">
-        <v>2</v>
+      <c r="B62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="n">
-        <v>2</v>
+      <c r="B63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="n">
-        <v>2</v>
+      <c r="B64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="n">
-        <v>2</v>
+      <c r="B66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="n">
-        <v>2</v>
+      <c r="B67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="n">
-        <v>2</v>
+      <c r="B68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="n">
-        <v>2</v>
+      <c r="B70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="n">
-        <v>2</v>
+      <c r="B71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="n">
-        <v>2</v>
+      <c r="B72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="n">
-        <v>2</v>
+      <c r="B74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="n">
-        <v>2</v>
+      <c r="B75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="n">
-        <v>2</v>
+      <c r="B76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="n">
-        <v>2</v>
+      <c r="B78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
-        <v>2</v>
+      <c r="B79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="n">
-        <v>2</v>
+      <c r="B80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="n">
-        <v>2</v>
+      <c r="B82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="n">
-        <v>2</v>
+      <c r="B83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="n">
-        <v>2</v>
+      <c r="B84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="n">
-        <v>2</v>
+      <c r="B86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="n">
-        <v>2</v>
+      <c r="B87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="n">
-        <v>2</v>
+      <c r="B88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="n">
-        <v>2</v>
+      <c r="B90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="n">
-        <v>2</v>
+      <c r="B91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="n">
-        <v>2</v>
+      <c r="B92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="n">
-        <v>2</v>
+      <c r="B94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="n">
-        <v>2</v>
+      <c r="B95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="n">
-        <v>2</v>
+      <c r="B96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="n">
-        <v>2</v>
+      <c r="B98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="n">
-        <v>2</v>
+      <c r="B99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="n">
-        <v>2</v>
+      <c r="B100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="n">
-        <v>2</v>
+      <c r="B102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="n">
-        <v>2</v>
+      <c r="B103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="n">
-        <v>2</v>
+      <c r="B104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="n">
-        <v>3</v>
+      <c r="B106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="n">
-        <v>3</v>
+      <c r="B107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="n">
-        <v>3</v>
+      <c r="B108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="n">
-        <v>3</v>
+      <c r="B110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="n">
-        <v>3</v>
+      <c r="B111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="n">
-        <v>3</v>
+      <c r="B112" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="n">
-        <v>3</v>
+      <c r="B114" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="n">
-        <v>3</v>
+      <c r="B115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="n">
-        <v>3</v>
+      <c r="B116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="n">
-        <v>3</v>
+      <c r="B118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="n">
-        <v>3</v>
+      <c r="B119" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="n">
-        <v>3</v>
+      <c r="B120" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="n">
-        <v>3</v>
+      <c r="B122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="n">
-        <v>3</v>
+      <c r="B123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="n">
-        <v>3</v>
+      <c r="B124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="n">
-        <v>3</v>
+      <c r="B126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="n">
-        <v>3</v>
+      <c r="B127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="n">
-        <v>3</v>
+      <c r="B128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="n">
-        <v>3</v>
+      <c r="B130" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="n">
-        <v>3</v>
+      <c r="B131" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="n">
-        <v>3</v>
+      <c r="B132" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="n">
-        <v>3</v>
+      <c r="B134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0" t="n">
-        <v>3</v>
+      <c r="B135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="n">
-        <v>3</v>
+      <c r="B136" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="n">
-        <v>3</v>
+      <c r="B138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="n">
-        <v>3</v>
+      <c r="B139" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="n">
-        <v>3</v>
+      <c r="B140" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="n">
-        <v>3</v>
+      <c r="B142" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="n">
-        <v>3</v>
+      <c r="B143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="n">
-        <v>3</v>
+      <c r="B144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="n">
-        <v>3</v>
+      <c r="B146" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="n">
-        <v>3</v>
+      <c r="B147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="n">
-        <v>3</v>
+      <c r="B148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="n">
-        <v>3</v>
+      <c r="B150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="n">
-        <v>4</v>
+      <c r="B151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="n">
-        <v>4</v>
+      <c r="B152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="n">
-        <v>4</v>
+      <c r="B154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="n">
-        <v>4</v>
+      <c r="B155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="n">
-        <v>4</v>
+      <c r="B156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="n">
-        <v>4</v>
+      <c r="B158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="0" t="n">
-        <v>4</v>
+      <c r="B159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="n">
-        <v>4</v>
+      <c r="B160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="n">
-        <v>4</v>
+      <c r="B162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="n">
-        <v>4</v>
+      <c r="B163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="0" t="n">
-        <v>4</v>
+      <c r="B164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="0" t="n">
-        <v>4</v>
+      <c r="B166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="n">
-        <v>4</v>
+      <c r="B167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="n">
-        <v>4</v>
+      <c r="B168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="0" t="n">
-        <v>4</v>
+      <c r="B170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="0" t="n">
-        <v>4</v>
+      <c r="B171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="0" t="n">
-        <v>4</v>
+      <c r="B172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="0" t="n">
-        <v>4</v>
+      <c r="B174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="0" t="n">
-        <v>4</v>
+      <c r="B175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="0" t="n">
-        <v>4</v>
+      <c r="B176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="0" t="n">
-        <v>4</v>
+      <c r="B178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="0" t="n">
-        <v>4</v>
+      <c r="B179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="0" t="n">
-        <v>4</v>
+      <c r="B180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="0" t="n">
-        <v>4</v>
+      <c r="B182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="0" t="n">
-        <v>4</v>
+      <c r="B183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="n">
-        <v>4</v>
+      <c r="B184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="0" t="n">
-        <v>4</v>
+      <c r="B186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="0" t="n">
-        <v>4</v>
+      <c r="B187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="0" t="n">
-        <v>4</v>
+      <c r="B188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="0" t="n">
-        <v>4</v>
+      <c r="B190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="0" t="n">
-        <v>4</v>
+      <c r="B191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="0" t="n">
-        <v>4</v>
+      <c r="B192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="0" t="n">
+      <c r="B193" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="0" t="n">
-        <v>4</v>
+      <c r="B194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="0" t="n">
-        <v>4</v>
+      <c r="B195" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="0" t="n">
-        <v>4</v>
+      <c r="B196" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="0" t="n">
-        <v>5</v>
+      <c r="B199" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="0" t="n">
-        <v>5</v>
+      <c r="B200" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="0" t="n">
-        <v>5</v>
+      <c r="B201" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="0" t="n">
-        <v>5</v>
+      <c r="B203" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="0" t="n">
-        <v>5</v>
+      <c r="B204" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="0" t="n">
-        <v>5</v>
+      <c r="B205" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="0" t="n">
-        <v>5</v>
+      <c r="B207" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="0" t="n">
-        <v>5</v>
+      <c r="B208" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="0" t="n">
-        <v>5</v>
+      <c r="B209" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="0" t="n">
-        <v>5</v>
+      <c r="B211" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="0" t="n">
-        <v>5</v>
+      <c r="B212" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="0" t="n">
-        <v>5</v>
+      <c r="B213" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="0" t="n">
-        <v>5</v>
+      <c r="B215" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="0" t="n">
-        <v>5</v>
+      <c r="B216" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="0" t="n">
-        <v>5</v>
+      <c r="B217" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="0" t="n">
+      <c r="B218" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="0" t="n">
-        <v>5</v>
+      <c r="B219" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="0" t="n">
-        <v>5</v>
+      <c r="B220" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="0" t="n">
+      <c r="B221" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="0" t="n">
+      <c r="B222" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="0" t="n">
-        <v>5</v>
+      <c r="B223" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="0" t="n">
-        <v>5</v>
+      <c r="B224" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="0" t="n">
+      <c r="B225" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="0" t="n">
+      <c r="B226" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="0" t="n">
-        <v>5</v>
+      <c r="B227" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="0" t="n">
-        <v>5</v>
+      <c r="B228" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="0" t="n">
+      <c r="B229" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="0" t="n">
+      <c r="B230" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="0" t="n">
-        <v>5</v>
+      <c r="B231" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="0" t="n">
-        <v>5</v>
+      <c r="B232" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="0" t="n">
+      <c r="B233" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="0" t="n">
+      <c r="B234" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="0" t="n">
-        <v>5</v>
+      <c r="B235" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="0" t="n">
-        <v>5</v>
+      <c r="B236" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="0" t="n">
+      <c r="B237" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="0" t="n">
+      <c r="B238" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="0" t="n">
-        <v>5</v>
+      <c r="B239" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="0" t="n">
-        <v>5</v>
+      <c r="B240" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="0" t="n">
+      <c r="B241" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="0" t="n">
+      <c r="B242" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="0" t="n">
-        <v>5</v>
+      <c r="B243" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="0" t="n">
-        <v>6</v>
+      <c r="B244" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="0" t="n">
+      <c r="B245" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="0" t="n">
-        <v>6</v>
+      <c r="B246" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="0" t="n">
+      <c r="B247" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="0" t="n">
-        <v>6</v>
+      <c r="B248" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="0" t="n">
+      <c r="B249" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="0" t="n">
-        <v>6</v>
+      <c r="B250" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="0" t="n">
+      <c r="B251" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="0" t="n">
-        <v>6</v>
+      <c r="B252" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="0" t="n">
+      <c r="B253" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="0" t="n">
-        <v>6</v>
+      <c r="B254" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="0" t="n">
+      <c r="B255" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="0" t="n">
-        <v>6</v>
+      <c r="B256" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="0" t="n">
+      <c r="B257" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="0" t="n">
-        <v>6</v>
+      <c r="B258" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="0" t="n">
+      <c r="B259" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="0" t="n">
-        <v>6</v>
+      <c r="B260" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="0" t="n">
+      <c r="B261" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="0" t="n">
-        <v>6</v>
+      <c r="B262" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="0" t="n">
+      <c r="B263" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="0" t="n">
-        <v>6</v>
+      <c r="B264" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="0" t="n">
+      <c r="B265" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="0" t="n">
-        <v>6</v>
+      <c r="B266" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="0" t="n">
+      <c r="B267" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="0" t="n">
-        <v>6</v>
+      <c r="B268" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="0" t="n">
+      <c r="B269" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="0" t="n">
-        <v>6</v>
+      <c r="B270" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="0" t="n">
+      <c r="B271" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="0" t="n">
-        <v>6</v>
+      <c r="B272" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="0" t="n">
+      <c r="B273" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="0" t="n">
-        <v>6</v>
+      <c r="B274" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="0" t="n">
+      <c r="B275" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="0" t="n">
-        <v>6</v>
+      <c r="B276" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="0" t="n">
+      <c r="B277" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="0" t="n">
-        <v>6</v>
+      <c r="B278" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="0" t="n">
+      <c r="B279" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="0" t="n">
-        <v>6</v>
+      <c r="B280" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="0" t="n">
+      <c r="B281" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="0" t="n">
-        <v>6</v>
+      <c r="B282" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="0" t="n">
+      <c r="B283" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="0" t="n">
-        <v>6</v>
+      <c r="B284" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="0" t="n">
+      <c r="B285" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="0" t="n">
-        <v>6</v>
+      <c r="B286" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="0" t="n">
+      <c r="B287" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="0" t="n">
-        <v>6</v>
+      <c r="B288" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="0" t="n">
+      <c r="B289" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="0" t="n">
-        <v>6</v>
+      <c r="B290" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="0" t="n">
+      <c r="B291" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="0" t="n">
-        <v>7</v>
+      <c r="B292" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="0" t="n">
+      <c r="B293" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="0" t="n">
-        <v>7</v>
+      <c r="B294" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="0" t="n">
-        <v>7</v>
+      <c r="B295" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="0" t="n">
-        <v>7</v>
+      <c r="B296" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="0" t="n">
+      <c r="B297" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="0" t="n">
-        <v>7</v>
+      <c r="B298" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="0" t="n">
-        <v>7</v>
+      <c r="B299" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="0" t="n">
-        <v>7</v>
+      <c r="B300" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="0" t="n">
+      <c r="B301" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="0" t="n">
-        <v>7</v>
+      <c r="B302" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="0" t="n">
-        <v>7</v>
+      <c r="B303" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="0" t="n">
-        <v>7</v>
+      <c r="B304" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="0" t="n">
+      <c r="B305" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="0" t="n">
-        <v>7</v>
+      <c r="B306" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="0" t="n">
-        <v>7</v>
+      <c r="B307" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="0" t="n">
-        <v>7</v>
+      <c r="B308" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="0" t="n">
+      <c r="B309" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="0" t="n">
-        <v>7</v>
+      <c r="B310" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="0" t="n">
-        <v>7</v>
+      <c r="B311" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="0" t="n">
-        <v>7</v>
+      <c r="B312" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="0" t="n">
+      <c r="B313" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="0" t="n">
-        <v>7</v>
+      <c r="B314" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="0" t="n">
-        <v>7</v>
+      <c r="B315" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="0" t="n">
-        <v>7</v>
+      <c r="B316" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="0" t="n">
+      <c r="B317" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="0" t="n">
-        <v>7</v>
+      <c r="B318" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="0" t="n">
-        <v>7</v>
+      <c r="B319" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="0" t="n">
-        <v>7</v>
+      <c r="B320" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="0" t="n">
+      <c r="B321" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="0" t="n">
-        <v>7</v>
+      <c r="B322" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="0" t="n">
-        <v>7</v>
+      <c r="B323" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="0" t="n">
-        <v>7</v>
+      <c r="B324" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="0" t="n">
+      <c r="B325" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="0" t="n">
-        <v>7</v>
+      <c r="B326" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="0" t="n">
-        <v>7</v>
+      <c r="B327" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="0" t="n">
-        <v>7</v>
+      <c r="B328" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="0" t="n">
+      <c r="B329" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="0" t="n">
-        <v>7</v>
+      <c r="B330" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="0" t="n">
-        <v>7</v>
+      <c r="B331" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="0" t="n">
+      <c r="B332" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="0" t="n">
+      <c r="B333" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="0" t="n">
-        <v>8</v>
+      <c r="B334" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="0" t="n">
-        <v>8</v>
+      <c r="B335" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="0" t="n">
+      <c r="B336" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="0" t="n">
+      <c r="B337" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="0" t="n">
-        <v>8</v>
+      <c r="B338" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="0" t="n">
-        <v>8</v>
+      <c r="B339" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B340" s="0" t="n">
+      <c r="B340" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="0" t="n">
+      <c r="B341" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="0" t="n">
-        <v>8</v>
+      <c r="B342" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="0" t="n">
-        <v>8</v>
+      <c r="B343" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="0" t="n">
+      <c r="B344" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="0" t="n">
+      <c r="B345" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="0" t="n">
-        <v>8</v>
+      <c r="B346" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="0" t="n">
-        <v>8</v>
+      <c r="B347" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="0" t="n">
+      <c r="B348" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="0" t="n">
+      <c r="B349" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="0" t="n">
-        <v>8</v>
+      <c r="B350" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="0" t="n">
-        <v>8</v>
+      <c r="B351" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="0" t="n">
+      <c r="B352" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B353" s="0" t="n">
+      <c r="B353" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="0" t="n">
-        <v>8</v>
+      <c r="B354" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="0" t="n">
-        <v>8</v>
+      <c r="B355" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="0" t="n">
+      <c r="B356" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="0" t="n">
+      <c r="B357" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B358" s="0" t="n">
-        <v>8</v>
+      <c r="B358" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="0" t="n">
-        <v>8</v>
+      <c r="B359" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="0" t="n">
+      <c r="B360" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B361" s="0" t="n">
+      <c r="B361" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B362" s="0" t="n">
-        <v>8</v>
+      <c r="B362" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="0" t="n">
-        <v>8</v>
+      <c r="B363" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B364" s="0" t="n">
+      <c r="B364" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="0" t="n">
-        <v>8</v>
+      <c r="B365" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B366" s="0" t="n">
-        <v>8</v>
+      <c r="B366" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B367" s="0" t="n">
-        <v>8</v>
+      <c r="B367" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B368" s="0" t="n">
+      <c r="B368" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="0" t="n">
+      <c r="B369" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B370" s="0" t="n">
-        <v>8</v>
+      <c r="B370" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="0" t="n">
-        <v>8</v>
+      <c r="B371" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
